--- a/neutralization_assays/data/neut_plate_reader_data/fPitt3postinf_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/fPitt3postinf_NeutralizationAssay.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="29020" windowHeight="16400" activeTab="4"/>
+    <workbookView xWindow="34120" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -15,6 +20,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +44,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -98,7 +105,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -127,7 +133,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -189,7 +194,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -218,7 +222,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -280,7 +283,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -309,7 +311,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -371,7 +372,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -400,7 +400,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -462,7 +461,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -588,12 +586,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -670,6 +662,12 @@
   </si>
   <si>
     <t>4/27/2019 9:31:35 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -703,7 +701,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -1153,12 +1150,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1187,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1222,17 +1219,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1240,12 +1237,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1311,7 +1308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1333,7 +1330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1355,71 +1352,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B33">
         <v>9317</v>
@@ -1458,9 +1452,9 @@
         <v>9355</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>28905</v>
@@ -1499,9 +1493,9 @@
         <v>32258</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>21975</v>
@@ -1540,9 +1534,9 @@
         <v>12313</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>20195</v>
@@ -1581,9 +1575,9 @@
         <v>12495</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>20663</v>
@@ -1622,9 +1616,9 @@
         <v>12599</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>27159</v>
@@ -1663,23 +1657,23 @@
         <v>27133</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1688,12 +1682,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1717,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1725,15 +1719,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1741,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1749,7 +1743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1757,17 +1751,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1775,12 +1769,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1791,7 +1785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1802,7 +1796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1813,7 +1807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1824,7 +1818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1835,7 +1829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1846,7 +1840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1857,7 +1851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1868,7 +1862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1879,7 +1873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1890,71 +1884,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>9109</v>
@@ -1993,9 +1984,9 @@
         <v>8975</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>31584</v>
@@ -2034,9 +2025,9 @@
         <v>33816</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>31326</v>
@@ -2075,9 +2066,9 @@
         <v>14922</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>28149</v>
@@ -2116,9 +2107,9 @@
         <v>14872</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>27160</v>
@@ -2157,9 +2148,9 @@
         <v>15089</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>29208</v>
@@ -2198,23 +2189,23 @@
         <v>32432</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2223,12 +2214,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M38"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2244,7 +2235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2252,7 +2243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2260,15 +2251,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2276,7 +2267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2284,7 +2275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2292,17 +2283,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2310,12 +2301,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2326,7 +2317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2337,7 +2328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2348,7 +2339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2359,7 +2350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2370,7 +2361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2381,7 +2372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2392,7 +2383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2403,7 +2394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2414,7 +2405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2425,71 +2416,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6520</v>
@@ -2528,9 +2516,9 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>29714</v>
@@ -2569,9 +2557,9 @@
         <v>29772</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>28807</v>
@@ -2610,9 +2598,9 @@
         <v>9954</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>27496</v>
@@ -2651,9 +2639,9 @@
         <v>10180</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26661</v>
@@ -2692,9 +2680,9 @@
         <v>10259</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>27130</v>
@@ -2733,23 +2721,23 @@
         <v>28294</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2758,12 +2746,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M38"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2779,7 +2767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2787,7 +2775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2795,15 +2783,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2819,7 +2807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2827,17 +2815,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2845,12 +2833,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2861,7 +2849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2872,7 +2860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2883,7 +2871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2894,7 +2882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2905,7 +2893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2916,7 +2904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2927,7 +2915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2938,7 +2926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2949,7 +2937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2960,71 +2948,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B33">
         <v>9191</v>
@@ -3063,9 +3048,9 @@
         <v>9043</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>28840</v>
@@ -3104,9 +3089,9 @@
         <v>31736</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>25985</v>
@@ -3145,9 +3130,9 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>25599</v>
@@ -3186,9 +3171,9 @@
         <v>14027</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26542</v>
@@ -3227,9 +3212,9 @@
         <v>13942</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>27417</v>
@@ -3268,23 +3253,23 @@
         <v>29436</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3293,12 +3278,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3314,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3322,7 +3307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3330,15 +3315,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3346,7 +3331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3354,7 +3339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3362,17 +3347,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3380,12 +3365,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3396,7 +3381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3407,7 +3392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3418,7 +3403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3429,7 +3414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3440,7 +3425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3462,7 +3447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3473,7 +3458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3484,7 +3469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3495,71 +3480,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>9603</v>
@@ -3598,9 +3580,9 @@
         <v>9521</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>29836</v>
@@ -3639,9 +3621,9 @@
         <v>33905</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>30491</v>
@@ -3680,9 +3662,9 @@
         <v>15559</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>29730</v>
@@ -3721,9 +3703,9 @@
         <v>15793</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>29380</v>
@@ -3762,9 +3744,9 @@
         <v>15918</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>32533</v>
@@ -3803,22 +3785,22 @@
         <v>30281</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>